--- a/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24344C07-FBC0-4BD3-BC86-CD6EDF5A2E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2437EFF1-ECA6-4312-9494-C30F34F22EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11CA2C8D-177D-47DF-89B8-4A3081867F6D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BB2FC33F-8650-4F50-965B-4FD6CC6D0BB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="282">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -77,796 +77,808 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,39%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
   </si>
   <si>
     <t>74,43%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>70,52%</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1281,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5343669F-ADCA-4F95-9D8A-B552CE578E96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9821BBD9-64F3-4ECB-843C-4E99188B2C16}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1719,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1728,13 +1740,13 @@
         <v>1908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1743,13 +1755,13 @@
         <v>3100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1776,13 @@
         <v>4280</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1779,13 +1791,13 @@
         <v>4296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -1794,13 +1806,13 @@
         <v>8576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,13 +1827,13 @@
         <v>20914</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -1830,13 +1842,13 @@
         <v>12355</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -1845,13 +1857,13 @@
         <v>33270</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,13 +1878,13 @@
         <v>102165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -1881,28 +1893,28 @@
         <v>88271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
       </c>
       <c r="N13" s="7">
-        <v>190436</v>
+        <v>190437</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,13 +1929,13 @@
         <v>298601</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
@@ -1932,13 +1944,13 @@
         <v>390799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>556</v>
@@ -1947,13 +1959,13 @@
         <v>689400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,7 +2007,7 @@
         <v>760</v>
       </c>
       <c r="N15" s="7">
-        <v>924782</v>
+        <v>924783</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -2009,7 +2021,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2021,13 +2033,13 @@
         <v>3723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2036,13 +2048,13 @@
         <v>798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2051,13 +2063,13 @@
         <v>4521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2084,13 @@
         <v>5759</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2093,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2102,13 +2114,13 @@
         <v>7377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2135,13 @@
         <v>28417</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -2138,13 +2150,13 @@
         <v>10632</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -2153,13 +2165,13 @@
         <v>39049</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2186,13 @@
         <v>122232</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -2189,13 +2201,13 @@
         <v>106463</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -2204,13 +2216,13 @@
         <v>228695</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2237,13 @@
         <v>394082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>654</v>
@@ -2240,13 +2252,13 @@
         <v>463087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>1035</v>
@@ -2255,13 +2267,13 @@
         <v>857169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,7 +2329,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2335,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2344,13 +2356,13 @@
         <v>2936</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2359,13 +2371,13 @@
         <v>4783</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2392,13 @@
         <v>8148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2395,13 +2407,13 @@
         <v>1616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2410,13 +2422,13 @@
         <v>9764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2443,13 @@
         <v>21492</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -2446,13 +2458,13 @@
         <v>21475</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -2461,13 +2473,13 @@
         <v>42967</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2494,13 @@
         <v>152705</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
@@ -2497,13 +2509,13 @@
         <v>161928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>411</v>
@@ -2512,13 +2524,13 @@
         <v>314633</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2545,13 @@
         <v>533916</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>839</v>
@@ -2548,13 +2560,13 @@
         <v>555375</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>1313</v>
@@ -2563,13 +2575,13 @@
         <v>1089291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,7 +2637,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2637,13 +2649,13 @@
         <v>990</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2652,13 +2664,13 @@
         <v>855</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2667,13 +2679,13 @@
         <v>1846</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,10 +2700,10 @@
         <v>5219</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>184</v>
@@ -2706,10 +2718,10 @@
         <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -2718,13 +2730,13 @@
         <v>9903</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2751,7 @@
         <v>31983</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>189</v>
@@ -2769,13 +2781,13 @@
         <v>46072</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2802,13 @@
         <v>123109</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>232</v>
@@ -2805,13 +2817,13 @@
         <v>132037</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>375</v>
@@ -2820,13 +2832,13 @@
         <v>255145</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2853,13 @@
         <v>430885</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>735</v>
@@ -2856,7 +2868,7 @@
         <v>441391</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>207</v>
@@ -2945,13 +2957,13 @@
         <v>693</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -2960,13 +2972,13 @@
         <v>3488</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -2975,13 +2987,13 @@
         <v>4180</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +3008,13 @@
         <v>5187</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -3011,13 +3023,13 @@
         <v>3777</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -3026,13 +3038,13 @@
         <v>8964</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3059,13 @@
         <v>23342</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
@@ -3062,13 +3074,13 @@
         <v>25846</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M36" s="7">
         <v>80</v>
@@ -3077,13 +3089,13 @@
         <v>49187</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3110,13 @@
         <v>143393</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H37" s="7">
         <v>357</v>
@@ -3113,13 +3125,13 @@
         <v>190369</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7">
         <v>558</v>
@@ -3128,13 +3140,13 @@
         <v>333762</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3161,13 @@
         <v>519669</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>1278</v>
@@ -3164,13 +3176,13 @@
         <v>794340</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M38" s="7">
         <v>2057</v>
@@ -3179,13 +3191,13 @@
         <v>1314009</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3265,13 @@
         <v>12371</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -3268,13 +3280,13 @@
         <v>11712</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M40" s="7">
         <v>26</v>
@@ -3283,13 +3295,13 @@
         <v>24083</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3316,13 @@
         <v>28592</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H41" s="7">
         <v>24</v>
@@ -3319,13 +3331,13 @@
         <v>17860</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
         <v>56</v>
@@ -3334,13 +3346,13 @@
         <v>46452</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3367,13 @@
         <v>145176</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="H42" s="7">
         <v>144</v>
@@ -3370,13 +3382,13 @@
         <v>100866</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M42" s="7">
         <v>290</v>
@@ -3385,13 +3397,13 @@
         <v>246042</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3418,13 @@
         <v>745736</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H43" s="7">
         <v>1140</v>
@@ -3421,13 +3433,13 @@
         <v>743512</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M43" s="7">
         <v>1883</v>
@@ -3436,13 +3448,13 @@
         <v>1489248</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>268</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3469,13 @@
         <v>2427304</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="H44" s="7">
         <v>4017</v>
@@ -3472,13 +3484,13 @@
         <v>2915440</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M44" s="7">
         <v>6436</v>
@@ -3487,13 +3499,13 @@
         <v>5342744</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,7 +3561,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2437EFF1-ECA6-4312-9494-C30F34F22EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D91B49E-5811-4B01-AFDA-3C351B992DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BB2FC33F-8650-4F50-965B-4FD6CC6D0BB5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B1E2D1B-42F8-4F89-BEB0-DAE4C28BFCF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9821BBD9-64F3-4ECB-843C-4E99188B2C16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5CFF9C-FFBC-43DF-929E-862758076AB9}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D91B49E-5811-4B01-AFDA-3C351B992DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7330F312-6552-45F8-8D74-40E0AB5B0569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B1E2D1B-42F8-4F89-BEB0-DAE4C28BFCF4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08709C81-3427-4BEE-BD85-FE27EBAB1AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="278">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -77,13 +77,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,39%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>2,78%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -92,793 +92,781 @@
     <t>0,23%</t>
   </si>
   <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1293,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5CFF9C-FFBC-43DF-929E-862758076AB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12804CB-8DF8-4855-B1BE-FFE04734E99A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1731,7 +1719,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1740,13 +1728,13 @@
         <v>1908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1755,13 +1743,13 @@
         <v>3100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,13 +1764,13 @@
         <v>4280</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1791,13 +1779,13 @@
         <v>4296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -1806,13 +1794,13 @@
         <v>8576</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,13 +1815,13 @@
         <v>20914</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -1842,13 +1830,13 @@
         <v>12355</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -1857,13 +1845,13 @@
         <v>33270</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1866,13 @@
         <v>102165</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -1893,28 +1881,28 @@
         <v>88271</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
       </c>
       <c r="N13" s="7">
-        <v>190437</v>
+        <v>190436</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1917,13 @@
         <v>298601</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
@@ -1944,13 +1932,13 @@
         <v>390799</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>556</v>
@@ -1959,13 +1947,13 @@
         <v>689400</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,7 +1995,7 @@
         <v>760</v>
       </c>
       <c r="N15" s="7">
-        <v>924783</v>
+        <v>924782</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -2021,7 +2009,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2033,13 +2021,13 @@
         <v>3723</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2048,13 +2036,13 @@
         <v>798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2063,13 +2051,13 @@
         <v>4521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,13 +2072,13 @@
         <v>5759</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2105,7 +2093,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2114,13 +2102,13 @@
         <v>7377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2123,13 @@
         <v>28417</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -2150,13 +2138,13 @@
         <v>10632</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -2165,13 +2153,13 @@
         <v>39049</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2174,13 @@
         <v>122232</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -2201,13 +2189,13 @@
         <v>106463</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -2216,13 +2204,13 @@
         <v>228695</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2225,13 @@
         <v>394082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>654</v>
@@ -2252,13 +2240,13 @@
         <v>463087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1035</v>
@@ -2267,13 +2255,13 @@
         <v>857169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2317,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2347,7 +2335,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2356,13 +2344,13 @@
         <v>2936</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2371,13 +2359,13 @@
         <v>4783</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2380,13 @@
         <v>8148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2407,13 +2395,13 @@
         <v>1616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2422,13 +2410,13 @@
         <v>9764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2431,13 @@
         <v>21492</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -2458,13 +2446,13 @@
         <v>21475</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
@@ -2473,13 +2461,13 @@
         <v>42967</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2482,13 @@
         <v>152705</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
@@ -2509,13 +2497,13 @@
         <v>161928</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>411</v>
@@ -2524,13 +2512,13 @@
         <v>314633</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2533,13 @@
         <v>533916</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>839</v>
@@ -2560,13 +2548,13 @@
         <v>555375</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>1313</v>
@@ -2575,13 +2563,13 @@
         <v>1089291</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2625,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2649,13 +2637,13 @@
         <v>990</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2664,13 +2652,13 @@
         <v>855</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -2679,13 +2667,13 @@
         <v>1846</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,10 +2688,10 @@
         <v>5219</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>184</v>
@@ -2718,10 +2706,10 @@
         <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -2730,13 +2718,13 @@
         <v>9903</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,7 +2739,7 @@
         <v>31983</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>189</v>
@@ -2781,13 +2769,13 @@
         <v>46072</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2790,13 @@
         <v>123109</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>232</v>
@@ -2817,13 +2805,13 @@
         <v>132037</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>375</v>
@@ -2832,13 +2820,13 @@
         <v>255145</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2841,13 @@
         <v>430885</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>735</v>
@@ -2868,7 +2856,7 @@
         <v>441391</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>207</v>
@@ -2957,13 +2945,13 @@
         <v>693</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -2972,13 +2960,13 @@
         <v>3488</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -2987,13 +2975,13 @@
         <v>4180</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +2996,13 @@
         <v>5187</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -3023,13 +3011,13 @@
         <v>3777</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -3038,13 +3026,13 @@
         <v>8964</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3047,13 @@
         <v>23342</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
@@ -3074,13 +3062,13 @@
         <v>25846</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M36" s="7">
         <v>80</v>
@@ -3089,13 +3077,13 @@
         <v>49187</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3098,13 @@
         <v>143393</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H37" s="7">
         <v>357</v>
@@ -3125,13 +3113,13 @@
         <v>190369</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M37" s="7">
         <v>558</v>
@@ -3140,13 +3128,13 @@
         <v>333762</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3149,13 @@
         <v>519669</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H38" s="7">
         <v>1278</v>
@@ -3176,13 +3164,13 @@
         <v>794340</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>2057</v>
@@ -3191,13 +3179,13 @@
         <v>1314009</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3253,13 @@
         <v>12371</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -3280,13 +3268,13 @@
         <v>11712</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M40" s="7">
         <v>26</v>
@@ -3295,13 +3283,13 @@
         <v>24083</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3304,13 @@
         <v>28592</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H41" s="7">
         <v>24</v>
@@ -3331,13 +3319,13 @@
         <v>17860</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
         <v>56</v>
@@ -3346,13 +3334,13 @@
         <v>46452</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3355,13 @@
         <v>145176</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="H42" s="7">
         <v>144</v>
@@ -3382,13 +3370,13 @@
         <v>100866</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M42" s="7">
         <v>290</v>
@@ -3397,13 +3385,13 @@
         <v>246042</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3406,13 @@
         <v>745736</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H43" s="7">
         <v>1140</v>
@@ -3433,13 +3421,13 @@
         <v>743512</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M43" s="7">
         <v>1883</v>
@@ -3448,13 +3436,13 @@
         <v>1489248</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>121</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3457,13 @@
         <v>2427304</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="H44" s="7">
         <v>4017</v>
@@ -3484,13 +3472,13 @@
         <v>2915440</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M44" s="7">
         <v>6436</v>
@@ -3499,13 +3487,13 @@
         <v>5342744</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3549,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7330F312-6552-45F8-8D74-40E0AB5B0569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{322C32E7-6260-47BC-B9C2-092205B4BAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08709C81-3427-4BEE-BD85-FE27EBAB1AA0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CDCCD3E1-7A8E-4219-A59A-77A7667C47AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="313">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -65,808 +65,913 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1281,8 +1386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12804CB-8DF8-4855-B1BE-FFE04734E99A}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EE2EDD-4F0C-4E29-AC27-0FF141C4E9A3}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1402,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1417,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1727</v>
+        <v>1522</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1432,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>5652</v>
+        <v>5445</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1468,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1868</v>
+        <v>1716</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1483,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1868</v>
+        <v>1716</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1504,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>19027</v>
+        <v>15054</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1519,7 +1624,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>16469</v>
+        <v>15534</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1534,7 +1639,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="7">
-        <v>35496</v>
+        <v>30588</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1555,7 +1660,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>102132</v>
+        <v>101439</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -1570,7 +1675,7 @@
         <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>64445</v>
+        <v>53058</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1585,7 +1690,7 @@
         <v>83</v>
       </c>
       <c r="N7" s="7">
-        <v>166577</v>
+        <v>154497</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -1606,7 +1711,7 @@
         <v>113</v>
       </c>
       <c r="D8" s="7">
-        <v>250151</v>
+        <v>277497</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -1621,7 +1726,7 @@
         <v>157</v>
       </c>
       <c r="I8" s="7">
-        <v>270448</v>
+        <v>241369</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1636,7 +1741,7 @@
         <v>270</v>
       </c>
       <c r="N8" s="7">
-        <v>520599</v>
+        <v>518867</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>53</v>
@@ -1657,7 +1762,7 @@
         <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>375236</v>
+        <v>397913</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>56</v>
@@ -1672,7 +1777,7 @@
         <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -1687,7 +1792,7 @@
         <v>377</v>
       </c>
       <c r="N9" s="7">
-        <v>730193</v>
+        <v>711113</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1710,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>58</v>
@@ -1719,37 +1824,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,46 +1866,46 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>4280</v>
+        <v>3683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>4296</v>
+        <v>3694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>8576</v>
+        <v>7377</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,46 +1917,46 @@
         <v>17</v>
       </c>
       <c r="D12" s="7">
-        <v>20914</v>
+        <v>21274</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>12355</v>
+        <v>10872</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
       </c>
       <c r="N12" s="7">
-        <v>33270</v>
+        <v>32146</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,46 +1968,46 @@
         <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>102165</v>
+        <v>96238</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
       </c>
       <c r="I13" s="7">
-        <v>88271</v>
+        <v>77274</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
       </c>
       <c r="N13" s="7">
-        <v>190436</v>
+        <v>173511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,46 +2019,46 @@
         <v>202</v>
       </c>
       <c r="D14" s="7">
-        <v>298601</v>
+        <v>299585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>354</v>
       </c>
       <c r="I14" s="7">
-        <v>390799</v>
+        <v>416903</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>556</v>
       </c>
       <c r="N14" s="7">
-        <v>689400</v>
+        <v>716487</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,7 +2070,7 @@
         <v>301</v>
       </c>
       <c r="D15" s="7">
-        <v>427152</v>
+        <v>421990</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -1980,7 +2085,7 @@
         <v>459</v>
       </c>
       <c r="I15" s="7">
-        <v>497630</v>
+        <v>510643</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -1995,7 +2100,7 @@
         <v>760</v>
       </c>
       <c r="N15" s="7">
-        <v>924782</v>
+        <v>932632</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -2009,7 +2114,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2018,46 +2123,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3723</v>
+        <v>3813</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>4521</v>
+        <v>4579</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2174,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>5759</v>
+        <v>5636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>106</v>
@@ -2084,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1618</v>
+        <v>1546</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>58</v>
@@ -2093,22 +2198,22 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>7377</v>
+        <v>7182</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,43 +2225,43 @@
         <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>28417</v>
+        <v>27373</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>10632</v>
+        <v>9690</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
       </c>
       <c r="N18" s="7">
-        <v>39049</v>
+        <v>37064</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>116</v>
@@ -2171,7 +2276,7 @@
         <v>122</v>
       </c>
       <c r="D19" s="7">
-        <v>122232</v>
+        <v>114244</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>117</v>
@@ -2186,7 +2291,7 @@
         <v>171</v>
       </c>
       <c r="I19" s="7">
-        <v>106463</v>
+        <v>97523</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>120</v>
@@ -2201,7 +2306,7 @@
         <v>293</v>
       </c>
       <c r="N19" s="7">
-        <v>228695</v>
+        <v>211766</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>123</v>
@@ -2222,7 +2327,7 @@
         <v>381</v>
       </c>
       <c r="D20" s="7">
-        <v>394082</v>
+        <v>382224</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>126</v>
@@ -2237,7 +2342,7 @@
         <v>654</v>
       </c>
       <c r="I20" s="7">
-        <v>463087</v>
+        <v>432119</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>129</v>
@@ -2252,7 +2357,7 @@
         <v>1035</v>
       </c>
       <c r="N20" s="7">
-        <v>857169</v>
+        <v>814342</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>132</v>
@@ -2273,7 +2378,7 @@
         <v>542</v>
       </c>
       <c r="D21" s="7">
-        <v>554213</v>
+        <v>533289</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>56</v>
@@ -2288,7 +2393,7 @@
         <v>845</v>
       </c>
       <c r="I21" s="7">
-        <v>582598</v>
+        <v>541645</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -2303,7 +2408,7 @@
         <v>1387</v>
       </c>
       <c r="N21" s="7">
-        <v>1136811</v>
+        <v>1074934</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>56</v>
@@ -2326,46 +2431,46 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1847</v>
+        <v>1735</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>2936</v>
+        <v>2746</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>4783</v>
+        <v>4481</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,46 +2482,46 @@
         <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>8148</v>
+        <v>7363</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>1616</v>
+        <v>1490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>9764</v>
+        <v>8853</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,46 +2533,46 @@
         <v>21</v>
       </c>
       <c r="D24" s="7">
-        <v>21492</v>
+        <v>19655</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
       </c>
       <c r="I24" s="7">
-        <v>21475</v>
+        <v>19737</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>54</v>
       </c>
       <c r="N24" s="7">
-        <v>42967</v>
+        <v>39391</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,46 +2584,46 @@
         <v>156</v>
       </c>
       <c r="D25" s="7">
-        <v>152705</v>
+        <v>141004</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>255</v>
       </c>
       <c r="I25" s="7">
-        <v>161928</v>
+        <v>146218</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>411</v>
       </c>
       <c r="N25" s="7">
-        <v>314633</v>
+        <v>287222</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,46 +2635,46 @@
         <v>474</v>
       </c>
       <c r="D26" s="7">
-        <v>533916</v>
+        <v>712336</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>839</v>
       </c>
       <c r="I26" s="7">
-        <v>555375</v>
+        <v>539030</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>1313</v>
       </c>
       <c r="N26" s="7">
-        <v>1089291</v>
+        <v>1251366</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,7 +2686,7 @@
         <v>661</v>
       </c>
       <c r="D27" s="7">
-        <v>718108</v>
+        <v>882092</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>56</v>
@@ -2596,7 +2701,7 @@
         <v>1135</v>
       </c>
       <c r="I27" s="7">
-        <v>743330</v>
+        <v>709222</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -2611,7 +2716,7 @@
         <v>1796</v>
       </c>
       <c r="N27" s="7">
-        <v>1461438</v>
+        <v>1591314</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>56</v>
@@ -2625,7 +2730,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2634,46 +2739,46 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>855</v>
+        <v>755</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>1846</v>
+        <v>1740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,46 +2790,46 @@
         <v>7</v>
       </c>
       <c r="D29" s="7">
-        <v>5219</v>
+        <v>4781</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>4684</v>
+        <v>4331</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
       </c>
       <c r="N29" s="7">
-        <v>9903</v>
+        <v>9113</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,46 +2841,46 @@
         <v>35</v>
       </c>
       <c r="D30" s="7">
-        <v>31983</v>
+        <v>29198</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
       </c>
       <c r="I30" s="7">
-        <v>14089</v>
+        <v>12572</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
       </c>
       <c r="N30" s="7">
-        <v>46072</v>
+        <v>41770</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,46 +2892,46 @@
         <v>143</v>
       </c>
       <c r="D31" s="7">
-        <v>123109</v>
+        <v>112730</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H31" s="7">
         <v>232</v>
       </c>
       <c r="I31" s="7">
-        <v>132037</v>
+        <v>119640</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M31" s="7">
         <v>375</v>
       </c>
       <c r="N31" s="7">
-        <v>255145</v>
+        <v>232370</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,46 +2943,46 @@
         <v>470</v>
       </c>
       <c r="D32" s="7">
-        <v>430885</v>
+        <v>405974</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>735</v>
       </c>
       <c r="I32" s="7">
-        <v>441391</v>
+        <v>407123</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>1205</v>
       </c>
       <c r="N32" s="7">
-        <v>872276</v>
+        <v>813097</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2994,7 @@
         <v>656</v>
       </c>
       <c r="D33" s="7">
-        <v>592185</v>
+        <v>553669</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>56</v>
@@ -2904,7 +3009,7 @@
         <v>999</v>
       </c>
       <c r="I33" s="7">
-        <v>593057</v>
+        <v>544421</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>56</v>
@@ -2919,7 +3024,7 @@
         <v>1655</v>
       </c>
       <c r="N33" s="7">
-        <v>1185242</v>
+        <v>1098090</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>56</v>
@@ -2933,7 +3038,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2942,46 +3047,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>3488</v>
+        <v>2005</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="M34" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>4180</v>
+        <v>2669</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,49 +3095,49 @@
         <v>19</v>
       </c>
       <c r="C35" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>5187</v>
+        <v>3392</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="H35" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I35" s="7">
-        <v>3777</v>
+        <v>1688</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>216</v>
       </c>
       <c r="M35" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N35" s="7">
-        <v>8964</v>
+        <v>5080</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>217</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,49 +3146,49 @@
         <v>26</v>
       </c>
       <c r="C36" s="7">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D36" s="7">
-        <v>23342</v>
+        <v>14044</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H36" s="7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I36" s="7">
-        <v>25846</v>
+        <v>13939</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>49</v>
+      </c>
+      <c r="N36" s="7">
+        <v>27982</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M36" s="7">
-        <v>80</v>
-      </c>
-      <c r="N36" s="7">
-        <v>49187</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,49 +3197,49 @@
         <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="D37" s="7">
-        <v>143393</v>
+        <v>75240</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>180</v>
+      </c>
+      <c r="I37" s="7">
+        <v>86275</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H37" s="7">
-        <v>357</v>
-      </c>
-      <c r="I37" s="7">
-        <v>190369</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>295</v>
+      </c>
+      <c r="N37" s="7">
+        <v>161515</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M37" s="7">
-        <v>558</v>
-      </c>
-      <c r="N37" s="7">
-        <v>333762</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,49 +3248,49 @@
         <v>46</v>
       </c>
       <c r="C38" s="7">
-        <v>779</v>
+        <v>424</v>
       </c>
       <c r="D38" s="7">
-        <v>519669</v>
+        <v>272424</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>605</v>
+      </c>
+      <c r="I38" s="7">
+        <v>499082</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H38" s="7">
-        <v>1278</v>
-      </c>
-      <c r="I38" s="7">
-        <v>794340</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>1029</v>
+      </c>
+      <c r="N38" s="7">
+        <v>771506</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="M38" s="7">
-        <v>2057</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1314009</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,10 +3299,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1020</v>
+        <v>566</v>
       </c>
       <c r="D39" s="7">
-        <v>692284</v>
+        <v>365763</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>56</v>
@@ -3209,10 +3314,10 @@
         <v>56</v>
       </c>
       <c r="H39" s="7">
-        <v>1696</v>
+        <v>820</v>
       </c>
       <c r="I39" s="7">
-        <v>1017818</v>
+        <v>602989</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>56</v>
@@ -3224,10 +3329,10 @@
         <v>56</v>
       </c>
       <c r="M39" s="7">
-        <v>2716</v>
+        <v>1386</v>
       </c>
       <c r="N39" s="7">
-        <v>1710102</v>
+        <v>968752</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>56</v>
@@ -3241,55 +3346,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>12371</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1269</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="K40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M40" s="7">
+        <v>2</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1269</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="H40" s="7">
-        <v>16</v>
-      </c>
-      <c r="I40" s="7">
-        <v>11712</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M40" s="7">
-        <v>26</v>
-      </c>
-      <c r="N40" s="7">
-        <v>24083</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,49 +3403,49 @@
         <v>19</v>
       </c>
       <c r="C41" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>28592</v>
+        <v>1273</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H41" s="7">
+        <v>4</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1736</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H41" s="7">
-        <v>24</v>
-      </c>
-      <c r="I41" s="7">
-        <v>17860</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>6</v>
+      </c>
+      <c r="N41" s="7">
+        <v>3009</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="M41" s="7">
-        <v>56</v>
-      </c>
-      <c r="N41" s="7">
-        <v>46452</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,49 +3454,49 @@
         <v>26</v>
       </c>
       <c r="C42" s="7">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="D42" s="7">
-        <v>145176</v>
+        <v>7280</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H42" s="7">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="I42" s="7">
-        <v>100866</v>
+        <v>9689</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M42" s="7">
-        <v>290</v>
+        <v>31</v>
       </c>
       <c r="N42" s="7">
-        <v>246042</v>
+        <v>16968</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,49 +3505,49 @@
         <v>36</v>
       </c>
       <c r="C43" s="7">
-        <v>743</v>
+        <v>86</v>
       </c>
       <c r="D43" s="7">
-        <v>745736</v>
+        <v>55145</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H43" s="7">
+        <v>177</v>
+      </c>
+      <c r="I43" s="7">
+        <v>83996</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M43" s="7">
         <v>263</v>
       </c>
-      <c r="H43" s="7">
-        <v>1140</v>
-      </c>
-      <c r="I43" s="7">
-        <v>743512</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M43" s="7">
-        <v>1883</v>
-      </c>
       <c r="N43" s="7">
-        <v>1489248</v>
+        <v>139141</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,49 +3556,49 @@
         <v>46</v>
       </c>
       <c r="C44" s="7">
-        <v>2419</v>
+        <v>355</v>
       </c>
       <c r="D44" s="7">
-        <v>2427304</v>
+        <v>216164</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H44" s="7">
-        <v>4017</v>
+        <v>673</v>
       </c>
       <c r="I44" s="7">
-        <v>2915440</v>
+        <v>326159</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M44" s="7">
-        <v>6436</v>
+        <v>1028</v>
       </c>
       <c r="N44" s="7">
-        <v>5342744</v>
+        <v>542323</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,63 +3607,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>454</v>
+      </c>
+      <c r="D45" s="7">
+        <v>279862</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="7">
+        <v>876</v>
+      </c>
+      <c r="I45" s="7">
+        <v>422849</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1330</v>
+      </c>
+      <c r="N45" s="7">
+        <v>702711</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>10</v>
+      </c>
+      <c r="D46" s="7">
+        <v>12330</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H46" s="7">
+        <v>16</v>
+      </c>
+      <c r="I46" s="7">
+        <v>10964</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="7">
+        <v>26</v>
+      </c>
+      <c r="N46" s="7">
+        <v>23294</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="7">
+        <v>32</v>
+      </c>
+      <c r="D47" s="7">
+        <v>26129</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="7">
+        <v>24</v>
+      </c>
+      <c r="I47" s="7">
+        <v>16202</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M47" s="7">
+        <v>56</v>
+      </c>
+      <c r="N47" s="7">
+        <v>42331</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="7">
+        <v>146</v>
+      </c>
+      <c r="D48" s="7">
+        <v>133877</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H48" s="7">
+        <v>144</v>
+      </c>
+      <c r="I48" s="7">
+        <v>92033</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M48" s="7">
+        <v>290</v>
+      </c>
+      <c r="N48" s="7">
+        <v>225909</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="7">
+        <v>743</v>
+      </c>
+      <c r="D49" s="7">
+        <v>696038</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1140</v>
+      </c>
+      <c r="I49" s="7">
+        <v>663984</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1883</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1360022</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2419</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2566204</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H50" s="7">
+        <v>4017</v>
+      </c>
+      <c r="I50" s="7">
+        <v>2861786</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M50" s="7">
+        <v>6436</v>
+      </c>
+      <c r="N50" s="7">
+        <v>5427989</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3350</v>
       </c>
-      <c r="D45" s="7">
-        <v>3359179</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3434578</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="7">
         <v>5341</v>
       </c>
-      <c r="I45" s="7">
-        <v>3789390</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3644969</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="7">
         <v>8691</v>
       </c>
-      <c r="N45" s="7">
-        <v>7148569</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>277</v>
+      <c r="N51" s="7">
+        <v>7079546</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023</t>
+          <t>Población según la creencia de si es importante vacunar a los niños/as en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
